--- a/src/main/resources/cevaplar.xlsx
+++ b/src/main/resources/cevaplar.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esaricoban\git\oca\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE77CA9-1625-4649-B2E0-FA00B474DAD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="3015" windowHeight="8985" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="3015" windowHeight="8985" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Chap3" sheetId="1" r:id="rId1"/>
-    <sheet name="Chap10" sheetId="3" r:id="rId2"/>
-    <sheet name="Chap11" sheetId="4" r:id="rId3"/>
-    <sheet name="Chapter 17" sheetId="5" r:id="rId4"/>
-    <sheet name="Chap21" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
+    <sheet name="C1" sheetId="9" r:id="rId1"/>
+    <sheet name="C2" sheetId="10" r:id="rId2"/>
+    <sheet name="C6" sheetId="11" r:id="rId3"/>
+    <sheet name="C22" sheetId="8" r:id="rId4"/>
+    <sheet name="Chap3" sheetId="1" r:id="rId5"/>
+    <sheet name="Chap10" sheetId="3" r:id="rId6"/>
+    <sheet name="Chap11" sheetId="4" r:id="rId7"/>
+    <sheet name="Chapter 17" sheetId="5" r:id="rId8"/>
+    <sheet name="Chap21" sheetId="6" r:id="rId9"/>
+    <sheet name="C10" sheetId="7" r:id="rId10"/>
+    <sheet name="C16" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
   <si>
     <t>1.4.</t>
   </si>
@@ -196,18 +207,212 @@
   </si>
   <si>
     <t>JDBC code throws a SQLException and must be handled!!!</t>
+  </si>
+  <si>
+    <t>C,D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -cp, -classpath, --class-path</t>
+  </si>
+  <si>
+    <t>A,C</t>
+  </si>
+  <si>
+    <t>Java 11 de JRE artık yok. Ya kullanıcıya JDK indirteceksin, ya da gerekli modülleri uygulaman içinde paketleyeceksin.</t>
+  </si>
+  <si>
+    <t>B,C</t>
+  </si>
+  <si>
+    <t>package satırı olmadan da bir sınıf olabilir!</t>
+  </si>
+  <si>
+    <t>C,E</t>
+  </si>
+  <si>
+    <t>A,E,</t>
+  </si>
+  <si>
+    <t>java SINIF_ISMI PARAM1 PARAM2, java komutundan sonra sınıf adı gelir!</t>
+  </si>
+  <si>
+    <t>jar -cvf</t>
+  </si>
+  <si>
+    <t>A,D</t>
+  </si>
+  <si>
+    <t>java, class-path -cp, -d and -p are used for module</t>
+  </si>
+  <si>
+    <t>javac, class-path -cp or a directory with -d</t>
+  </si>
+  <si>
+    <t>E,G</t>
+  </si>
+  <si>
+    <t>sideways compatibility diye bir şey yok</t>
+  </si>
+  <si>
+    <t>C,D,E</t>
+  </si>
+  <si>
+    <t>A,B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Importing by class name takes precedence over wildcards, these compile. </t>
+  </si>
+  <si>
+    <t>A,C,D,E</t>
+  </si>
+  <si>
+    <t>java accepts the name of the class as a parameter. Java DONT accepts the filename of the .class file as a parameter.</t>
+  </si>
+  <si>
+    <t>C,F</t>
+  </si>
+  <si>
+    <t>Java code compiled on Windows can run on Linux!</t>
+  </si>
+  <si>
+    <t>C,D,E,</t>
+  </si>
+  <si>
+    <t>A,D,E,F</t>
+  </si>
+  <si>
+    <t>An instance method can only access instance variables declared before the instance method declaration</t>
+  </si>
+  <si>
+    <t>A,E,F,G</t>
+  </si>
+  <si>
+    <t>var squirrel = new Object();</t>
+  </si>
+  <si>
+    <t>A,C,D,</t>
+  </si>
+  <si>
+    <t>A,C,F</t>
+  </si>
+  <si>
+    <t>B,C,F,</t>
+  </si>
+  <si>
+    <t>3,4,</t>
+  </si>
+  <si>
+    <t>1,5,6,</t>
+  </si>
+  <si>
+    <t>A,D,E</t>
+  </si>
+  <si>
+    <t>A,B,</t>
+  </si>
+  <si>
+    <t>The JVM is free to ignore calls to System.gc()</t>
+  </si>
+  <si>
+    <t>A,C,E,F,</t>
+  </si>
+  <si>
+    <t>A class variable of type long defaults to 0L</t>
+  </si>
+  <si>
+    <t>B,F</t>
+  </si>
+  <si>
+    <t>C,E,</t>
+  </si>
+  <si>
+    <t>A,D,</t>
+  </si>
+  <si>
+    <t>A,B,D,E,F</t>
+  </si>
+  <si>
+    <t>B,D,H</t>
+  </si>
+  <si>
+    <t>float, double değerler yazarken sayının sonunda f veya d yazmaz! 0.0 şekilde yazar.</t>
+  </si>
+  <si>
+    <t>a period (.) is not allowed in identifiers</t>
+  </si>
+  <si>
+    <t>a single underscore is no longer allowed as an identifier as of Java 9</t>
+  </si>
+  <si>
+    <t>A,B,G</t>
+  </si>
+  <si>
+    <t>A,B,C,</t>
+  </si>
+  <si>
+    <t>C,E,D</t>
+  </si>
+  <si>
+    <t>A,B,C</t>
+  </si>
+  <si>
+    <t>A,B,E,F</t>
+  </si>
+  <si>
+    <t>B,D</t>
+  </si>
+  <si>
+    <t>A,F</t>
+  </si>
+  <si>
+    <t>A,D,F</t>
+  </si>
+  <si>
+    <t>1,3,4,6</t>
+  </si>
+  <si>
+    <t>2,4,5</t>
+  </si>
+  <si>
+    <t>Locale constructor</t>
+  </si>
+  <si>
+    <t>Lcaldate.parse metod</t>
+  </si>
+  <si>
+    <t>iki nokta</t>
+  </si>
+  <si>
+    <t>A,D,E,</t>
+  </si>
+  <si>
+    <t>B,E</t>
+  </si>
+  <si>
+    <t>A,E</t>
+  </si>
+  <si>
+    <t>D,E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -228,15 +433,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F33A8D0B-0259-4E97-B9CA-71838AEA3292}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -244,12 +454,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -291,7 +504,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,9 +537,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,6 +589,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -534,7 +781,645 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B1B3A7-B8B8-4D65-81E2-29934B5FC012}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="45.28515625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA6756D-6E6C-48B1-82EC-580EDEE34DEE}">
+  <dimension ref="A2:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E411E4E-41D4-4D90-A1CB-5D262657F479}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="87" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4BEBD9-843B-4F91-B0AB-4A6F5240B10A}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F4750-D81B-4FD6-8E6C-22EC926E1BAE}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -590,8 +1475,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -729,8 +1614,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -851,8 +1736,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -978,8 +1863,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1111,16 +1996,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/main/resources/cevaplar.xlsx
+++ b/src/main/resources/cevaplar.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esaricoban\git\oca\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE77CA9-1625-4649-B2E0-FA00B474DAD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="3015" windowHeight="8985" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="3015" windowHeight="8985" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="C1" sheetId="9" r:id="rId1"/>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="121">
   <si>
     <t>1.4.</t>
   </si>
@@ -398,7 +392,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,7 +440,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{F33A8D0B-0259-4E97-B9CA-71838AEA3292}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -462,7 +456,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -504,7 +498,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -537,26 +531,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,23 +566,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -781,7 +741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B1B3A7-B8B8-4D65-81E2-29934B5FC012}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -935,7 +895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -965,13 +925,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA6756D-6E6C-48B1-82EC-580EDEE34DEE}">
-  <dimension ref="A2:B26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
@@ -1097,7 +1064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E411E4E-41D4-4D90-A1CB-5D262657F479}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1244,7 +1211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4BEBD9-843B-4F91-B0AB-4A6F5240B10A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1386,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F4750-D81B-4FD6-8E6C-22EC926E1BAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1419,7 +1386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1476,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1615,7 +1582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1737,7 +1704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1864,7 +1831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/src/main/resources/cevaplar.xlsx
+++ b/src/main/resources/cevaplar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="3015" windowHeight="8985" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="3015" windowHeight="8985" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="C1" sheetId="9" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="136">
   <si>
     <t>1.4.</t>
   </si>
@@ -387,13 +387,129 @@
   </si>
   <si>
     <t>D,E</t>
+  </si>
+  <si>
+    <t>A.B</t>
+  </si>
+  <si>
+    <t>A.C.</t>
+  </si>
+  <si>
+    <t>C.D</t>
+  </si>
+  <si>
+    <t>B.C.D.</t>
+  </si>
+  <si>
+    <t>B.E</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>ABF</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>ABE</t>
+  </si>
+  <si>
+    <r>
+      <t>final</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, it restricts extensibility ; private variable limits accessibility ; </t>
+    </r>
+  </si>
+  <si>
+    <t>oos.PUTFİELS</t>
+  </si>
+  <si>
+    <t>READOBJECT</t>
+  </si>
+  <si>
+    <r>
+      <t>grant {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>permission java.io.FilePermission "/usr/local/library/book.txt",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>"read,write";</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>};</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">serialPersistentFields must be declared private static final, or it will be ignored. </t>
+  </si>
+  <si>
+    <t>readResolve</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,6 +524,12 @@
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -431,12 +553,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,7 +1051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -1354,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,23 +1488,154 @@
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/cevaplar.xlsx
+++ b/src/main/resources/cevaplar.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esaricoban\git\oca\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F52909-9E03-41AA-A977-910C7634CF5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="3015" windowHeight="8985" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="3015" windowHeight="8985" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C1" sheetId="9" r:id="rId1"/>
     <sheet name="C2" sheetId="10" r:id="rId2"/>
-    <sheet name="C6" sheetId="11" r:id="rId3"/>
-    <sheet name="C22" sheetId="8" r:id="rId4"/>
-    <sheet name="Chap3" sheetId="1" r:id="rId5"/>
-    <sheet name="Chap10" sheetId="3" r:id="rId6"/>
-    <sheet name="Chap11" sheetId="4" r:id="rId7"/>
-    <sheet name="Chapter 17" sheetId="5" r:id="rId8"/>
-    <sheet name="Chap21" sheetId="6" r:id="rId9"/>
-    <sheet name="C10" sheetId="7" r:id="rId10"/>
-    <sheet name="C16" sheetId="12" r:id="rId11"/>
+    <sheet name="C3" sheetId="1" r:id="rId3"/>
+    <sheet name="C6" sheetId="11" r:id="rId4"/>
+    <sheet name="C10" sheetId="3" r:id="rId5"/>
+    <sheet name="C11" sheetId="4" r:id="rId6"/>
+    <sheet name="C13" sheetId="13" r:id="rId7"/>
+    <sheet name="C16" sheetId="12" r:id="rId8"/>
+    <sheet name="C17" sheetId="5" r:id="rId9"/>
+    <sheet name="C21" sheetId="6" r:id="rId10"/>
+    <sheet name="C22" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -360,12 +366,6 @@
   </si>
   <si>
     <t>A,D,F</t>
-  </si>
-  <si>
-    <t>1,3,4,6</t>
-  </si>
-  <si>
-    <t>2,4,5</t>
   </si>
   <si>
     <t>Locale constructor</t>
@@ -504,12 +504,18 @@
   <si>
     <t>readResolve</t>
   </si>
+  <si>
+    <t>2,3,4,5,</t>
+  </si>
+  <si>
+    <t>1,2,3,6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,7 +569,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -579,7 +585,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -621,7 +627,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -654,9 +660,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -689,6 +712,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -864,21 +904,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="45.28515625" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -886,7 +926,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>79</v>
       </c>
@@ -894,27 +934,27 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -922,22 +962,22 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
@@ -945,7 +985,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>72</v>
       </c>
@@ -953,7 +993,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>59</v>
       </c>
@@ -961,7 +1001,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
         <v>69</v>
       </c>
@@ -969,7 +1009,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -977,17 +1017,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>65</v>
       </c>
@@ -995,7 +1035,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>63</v>
       </c>
@@ -1003,7 +1043,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>61</v>
       </c>
@@ -1018,28 +1058,133 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1048,153 +1193,178 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="8" spans="1:3">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C8" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>120</v>
+      <c r="C19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="87" style="2" customWidth="1"/>
@@ -1202,7 +1372,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>104</v>
       </c>
@@ -1213,7 +1383,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1221,32 +1391,32 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>96</v>
       </c>
@@ -1254,7 +1424,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>94</v>
       </c>
@@ -1262,37 +1432,37 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>86</v>
       </c>
@@ -1300,7 +1470,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>84</v>
       </c>
@@ -1308,22 +1478,22 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>81</v>
       </c>
@@ -1334,44 +1504,101 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1379,17 +1606,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1397,7 +1624,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1405,12 +1632,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>65</v>
       </c>
@@ -1418,12 +1645,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>105</v>
       </c>
@@ -1431,7 +1658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -1439,7 +1666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1447,12 +1674,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1460,12 +1687,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
@@ -1475,220 +1702,138 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3</v>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1697,137 +1842,120 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>13</v>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>2.5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1836,120 +1964,43 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE1912B-EE8A-4AE3-BC48-CD172CEB2C1D}">
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2.5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1958,16 +2009,155 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1975,12 +2165,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1988,22 +2178,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2011,12 +2201,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2024,194 +2214,59 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/cevaplar.xlsx
+++ b/src/main/resources/cevaplar.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esaricoban\git\oca\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F52909-9E03-41AA-A977-910C7634CF5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="3015" windowHeight="8985" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="3015" windowHeight="8985" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="C1" sheetId="9" r:id="rId1"/>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="149">
   <si>
     <t>1.4.</t>
   </si>
@@ -510,12 +504,51 @@
   <si>
     <t>1,2,3,6</t>
   </si>
+  <si>
+    <t>only primitive type, String, Class, annotation, enumeration are permitted or 1-dimensional arrays thereof</t>
+  </si>
+  <si>
+    <t>default value must be non-null</t>
+  </si>
+  <si>
+    <t>1.2.6</t>
+  </si>
+  <si>
+    <t>3.4.5.6</t>
+  </si>
+  <si>
+    <t>ElementType ezber</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>3.4.6</t>
+  </si>
+  <si>
+    <t>1.3.5</t>
+  </si>
+  <si>
+    <t>sabitlere değer atanamaz, finalhepsi!</t>
+  </si>
+  <si>
+    <t>RetentionPolcy.RUNTIME defaultdur. Bu yüzden runtime da annotation bilgisi discard edilir.</t>
+  </si>
+  <si>
+    <t>Cast</t>
+  </si>
+  <si>
+    <t>(@MyAnn myClass)</t>
+  </si>
+  <si>
+    <t>hepsi publictir, başka şey alırsa derlenmez.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,7 +602,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -585,7 +618,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -627,7 +660,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -660,26 +693,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -712,23 +728,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -904,21 +903,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="45.28515625" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -926,7 +925,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>79</v>
       </c>
@@ -934,27 +933,27 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -962,22 +961,22 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
@@ -985,7 +984,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>72</v>
       </c>
@@ -993,7 +992,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>59</v>
       </c>
@@ -1001,7 +1000,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>69</v>
       </c>
@@ -1009,7 +1008,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1017,17 +1016,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>65</v>
       </c>
@@ -1035,7 +1034,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>63</v>
       </c>
@@ -1043,7 +1042,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>61</v>
       </c>
@@ -1058,21 +1057,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1080,12 +1079,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1093,22 +1092,22 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1116,12 +1115,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1129,7 +1128,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1137,52 +1136,52 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1193,24 +1192,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -1221,7 +1220,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1229,7 +1228,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1237,7 +1236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1248,17 +1247,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1266,27 +1265,27 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>123</v>
       </c>
@@ -1294,12 +1293,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1310,7 +1309,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1318,7 +1317,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>119</v>
       </c>
@@ -1326,7 +1325,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1334,7 +1333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1345,7 +1344,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1357,14 +1356,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="87" style="2" customWidth="1"/>
@@ -1372,7 +1371,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>104</v>
       </c>
@@ -1383,7 +1382,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1391,32 +1390,32 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>96</v>
       </c>
@@ -1424,7 +1423,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>94</v>
       </c>
@@ -1432,37 +1431,37 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>86</v>
       </c>
@@ -1470,7 +1469,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>84</v>
       </c>
@@ -1478,22 +1477,22 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>81</v>
       </c>
@@ -1504,16 +1503,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1521,7 +1520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1529,7 +1528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1537,7 +1536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1545,12 +1544,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1561,44 +1560,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1606,17 +1605,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1624,7 +1623,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1632,12 +1631,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>65</v>
       </c>
@@ -1645,12 +1644,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>105</v>
       </c>
@@ -1658,7 +1657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -1666,7 +1665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1674,12 +1673,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1687,12 +1686,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
@@ -1703,26 +1702,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1730,7 +1729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1738,27 +1737,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1766,17 +1765,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1784,12 +1783,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1797,12 +1796,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1810,7 +1809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1818,12 +1817,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1831,7 +1830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1842,31 +1841,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1874,7 +1873,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1882,32 +1881,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1915,37 +1914,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.4</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.3</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2.5</v>
       </c>
@@ -1953,7 +1952,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1964,43 +1963,156 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE1912B-EE8A-4AE3-BC48-CD172CEB2C1D}">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5.7</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2009,26 +2121,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2036,17 +2148,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -2054,47 +2166,47 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -2102,42 +2214,42 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>118</v>
       </c>
@@ -2148,16 +2260,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -2165,12 +2277,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -2178,22 +2290,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2201,12 +2313,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2214,57 +2326,57 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/src/main/resources/cevaplar.xlsx
+++ b/src/main/resources/cevaplar.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esaricoban\git\oca\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6034F34-6E61-4B42-9B6A-E5201E1285E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="3015" windowHeight="8985" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="3015" windowHeight="8985" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C1" sheetId="9" r:id="rId1"/>
@@ -14,17 +20,18 @@
     <sheet name="C10" sheetId="3" r:id="rId5"/>
     <sheet name="C11" sheetId="4" r:id="rId6"/>
     <sheet name="C13" sheetId="13" r:id="rId7"/>
-    <sheet name="C16" sheetId="12" r:id="rId8"/>
-    <sheet name="C17" sheetId="5" r:id="rId9"/>
-    <sheet name="C21" sheetId="6" r:id="rId10"/>
-    <sheet name="C22" sheetId="8" r:id="rId11"/>
+    <sheet name="C15" sheetId="14" r:id="rId8"/>
+    <sheet name="C16" sheetId="12" r:id="rId9"/>
+    <sheet name="C17" sheetId="5" r:id="rId10"/>
+    <sheet name="C21" sheetId="6" r:id="rId11"/>
+    <sheet name="C22" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="152">
   <si>
     <t>1.4.</t>
   </si>
@@ -543,12 +550,21 @@
   <si>
     <t>hepsi publictir, başka şey alırsa derlenmez.</t>
   </si>
+  <si>
+    <t>1,2,</t>
+  </si>
+  <si>
+    <t>2,4,5</t>
+  </si>
+  <si>
+    <t>6,7,1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,7 +618,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -618,7 +634,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -660,7 +676,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -693,9 +709,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -728,6 +761,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -903,21 +953,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="45.28515625" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -925,7 +975,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>79</v>
       </c>
@@ -933,27 +983,27 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -961,22 +1011,22 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
@@ -984,7 +1034,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>72</v>
       </c>
@@ -992,7 +1042,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>59</v>
       </c>
@@ -1000,7 +1050,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
         <v>69</v>
       </c>
@@ -1008,7 +1058,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1016,17 +1066,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>65</v>
       </c>
@@ -1034,7 +1084,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>63</v>
       </c>
@@ -1042,7 +1092,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>61</v>
       </c>
@@ -1057,21 +1107,148 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1079,12 +1256,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1092,22 +1269,22 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1115,12 +1292,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1128,7 +1305,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1136,52 +1313,52 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1191,25 +1368,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -1220,7 +1397,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1228,7 +1405,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1236,7 +1413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1247,17 +1424,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1265,27 +1442,27 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>123</v>
       </c>
@@ -1293,12 +1470,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1309,7 +1486,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1317,7 +1494,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>119</v>
       </c>
@@ -1325,7 +1502,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1333,7 +1510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1344,7 +1521,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1356,14 +1533,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="87" style="2" customWidth="1"/>
@@ -1371,7 +1548,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>104</v>
       </c>
@@ -1382,7 +1559,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1390,32 +1567,32 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>96</v>
       </c>
@@ -1423,7 +1600,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>94</v>
       </c>
@@ -1431,37 +1608,37 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>86</v>
       </c>
@@ -1469,7 +1646,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>84</v>
       </c>
@@ -1477,22 +1654,22 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>81</v>
       </c>
@@ -1503,16 +1680,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1520,7 +1697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1528,7 +1705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1536,7 +1713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1544,12 +1721,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1560,44 +1737,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1605,17 +1782,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1623,7 +1800,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1631,12 +1808,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>65</v>
       </c>
@@ -1644,12 +1821,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>105</v>
       </c>
@@ -1657,7 +1834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -1665,7 +1842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1673,12 +1850,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1686,12 +1863,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
@@ -1702,26 +1879,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1729,7 +1906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1737,27 +1914,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1765,17 +1942,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1783,12 +1960,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1796,12 +1973,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1809,7 +1986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1817,12 +1994,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1830,7 +2007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1841,31 +2018,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1873,7 +2050,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1881,32 +2058,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1914,37 +2091,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>1.4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>1.3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>2.5</v>
       </c>
@@ -1952,7 +2129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1963,21 +2140,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>4.5</v>
       </c>
@@ -1985,42 +2162,42 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5.7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2028,42 +2205,42 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -2071,12 +2248,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -2084,17 +2261,17 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2102,7 +2279,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>143</v>
       </c>
@@ -2110,7 +2287,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2121,26 +2298,160 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE06FF9B-7A4E-4DDB-89B0-CA4A6655EA3E}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>2.4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>2.4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2148,17 +2459,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -2166,47 +2477,47 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -2214,171 +2525,44 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>118</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/cevaplar.xlsx
+++ b/src/main/resources/cevaplar.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esaricoban\git\oca\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6034F34-6E61-4B42-9B6A-E5201E1285E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="3015" windowHeight="8985" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="3015" windowHeight="8985" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="C1" sheetId="9" r:id="rId1"/>
@@ -20,18 +14,19 @@
     <sheet name="C10" sheetId="3" r:id="rId5"/>
     <sheet name="C11" sheetId="4" r:id="rId6"/>
     <sheet name="C13" sheetId="13" r:id="rId7"/>
-    <sheet name="C15" sheetId="14" r:id="rId8"/>
-    <sheet name="C16" sheetId="12" r:id="rId9"/>
-    <sheet name="C17" sheetId="5" r:id="rId10"/>
-    <sheet name="C21" sheetId="6" r:id="rId11"/>
-    <sheet name="C22" sheetId="8" r:id="rId12"/>
+    <sheet name="C14" sheetId="15" r:id="rId8"/>
+    <sheet name="C15" sheetId="14" r:id="rId9"/>
+    <sheet name="C16" sheetId="12" r:id="rId10"/>
+    <sheet name="C17" sheetId="5" r:id="rId11"/>
+    <sheet name="C21" sheetId="6" r:id="rId12"/>
+    <sheet name="C22" sheetId="8" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="163">
   <si>
     <t>1.4.</t>
   </si>
@@ -551,20 +546,53 @@
     <t>hepsi publictir, başka şey alırsa derlenmez.</t>
   </si>
   <si>
-    <t>1,2,</t>
-  </si>
-  <si>
-    <t>2,4,5</t>
-  </si>
-  <si>
-    <t>6,7,1</t>
+    <t>A.C</t>
+  </si>
+  <si>
+    <t>B,D,E</t>
+  </si>
+  <si>
+    <t>F,G,A</t>
+  </si>
+  <si>
+    <t>findFirst return Empt optional</t>
+  </si>
+  <si>
+    <t>DoubleSupplier, IntSupplier, BooleanSupplier</t>
+  </si>
+  <si>
+    <t>A.B.E</t>
+  </si>
+  <si>
+    <t>C.F</t>
+  </si>
+  <si>
+    <t>B.D.F</t>
+  </si>
+  <si>
+    <t>A.G</t>
+  </si>
+  <si>
+    <t>LinkedList FIFO</t>
+  </si>
+  <si>
+    <t>&lt;NullPointerException&gt;printException(new NullPointerException ("D"))</t>
+  </si>
+  <si>
+    <t>Eğer treeSet e nesne atıyorsak, comparable ile atılır. Comparator tanımlı olsa bile. Ancak berlirtirsek comparator kullanılabilir.</t>
+  </si>
+  <si>
+    <t>B,</t>
+  </si>
+  <si>
+    <t>Metodda generic, dönüş tipinden hemen önce yazılmalıdır.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,7 +646,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -634,7 +662,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -676,7 +704,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -709,26 +737,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -761,23 +772,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -953,21 +947,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="45.28515625" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -975,7 +969,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>79</v>
       </c>
@@ -983,27 +977,27 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1011,22 +1005,22 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
@@ -1034,7 +1028,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>72</v>
       </c>
@@ -1042,7 +1036,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>59</v>
       </c>
@@ -1050,7 +1044,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>69</v>
       </c>
@@ -1058,7 +1052,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1066,17 +1060,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>65</v>
       </c>
@@ -1084,7 +1078,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>63</v>
       </c>
@@ -1092,7 +1086,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>61</v>
       </c>
@@ -1107,16 +1101,155 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1124,12 +1257,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1137,22 +1270,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1160,12 +1293,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1173,57 +1306,57 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1233,22 +1366,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1256,12 +1389,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1269,22 +1402,22 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1292,12 +1425,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1305,7 +1438,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1313,52 +1446,52 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1368,25 +1501,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -1397,7 +1530,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1405,7 +1538,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1413,7 +1546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1424,17 +1557,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1442,27 +1575,27 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>123</v>
       </c>
@@ -1470,12 +1603,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1486,7 +1619,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1494,7 +1627,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>119</v>
       </c>
@@ -1502,7 +1635,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1510,7 +1643,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1521,7 +1654,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1533,14 +1666,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="87" style="2" customWidth="1"/>
@@ -1548,7 +1681,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>104</v>
       </c>
@@ -1559,7 +1692,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1567,32 +1700,32 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>96</v>
       </c>
@@ -1600,7 +1733,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>94</v>
       </c>
@@ -1608,37 +1741,37 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>86</v>
       </c>
@@ -1646,7 +1779,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>84</v>
       </c>
@@ -1654,22 +1787,22 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>81</v>
       </c>
@@ -1680,16 +1813,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1697,7 +1830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1705,7 +1838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1713,7 +1846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1721,12 +1854,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1737,44 +1870,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1782,17 +1915,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1800,7 +1933,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1808,12 +1941,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>65</v>
       </c>
@@ -1821,12 +1954,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>105</v>
       </c>
@@ -1834,7 +1967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -1842,7 +1975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1850,12 +1983,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1863,12 +1996,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
@@ -1879,26 +2012,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1906,7 +2039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1914,27 +2047,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1942,17 +2075,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1960,12 +2093,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1973,12 +2106,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1986,7 +2119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1994,12 +2127,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2007,7 +2140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2018,31 +2151,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2050,7 +2183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2058,32 +2191,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -2091,37 +2224,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.4</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.3</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2.5</v>
       </c>
@@ -2129,7 +2262,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2140,21 +2273,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4.5</v>
       </c>
@@ -2162,42 +2295,42 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5.7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2205,42 +2338,42 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -2248,12 +2381,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -2261,17 +2394,17 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2279,7 +2412,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>143</v>
       </c>
@@ -2287,7 +2420,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2298,132 +2431,147 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE06FF9B-7A4E-4DDB-89B0-CA4A6655EA3E}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>2.4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>2.4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>6</v>
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2432,137 +2580,132 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/cevaplar.xlsx
+++ b/src/main/resources/cevaplar.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esaricoban\git\oca\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F70A6B1-FB37-4D7E-9B3B-AB652AF4E8ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="3015" windowHeight="8985" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="3015" windowHeight="8985" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C1" sheetId="9" r:id="rId1"/>
@@ -18,15 +24,16 @@
     <sheet name="C15" sheetId="14" r:id="rId9"/>
     <sheet name="C16" sheetId="12" r:id="rId10"/>
     <sheet name="C17" sheetId="5" r:id="rId11"/>
-    <sheet name="C21" sheetId="6" r:id="rId12"/>
-    <sheet name="C22" sheetId="8" r:id="rId13"/>
+    <sheet name="C18" sheetId="16" r:id="rId12"/>
+    <sheet name="C21" sheetId="6" r:id="rId13"/>
+    <sheet name="C22" sheetId="8" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="164">
   <si>
     <t>1.4.</t>
   </si>
@@ -587,12 +594,15 @@
   <si>
     <t>Metodda generic, dönüş tipinden hemen önce yazılmalıdır.</t>
   </si>
+  <si>
+    <t>B,C,F</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,7 +656,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -662,7 +672,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -704,7 +714,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -737,9 +747,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -772,6 +799,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -947,21 +991,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="45.28515625" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -969,7 +1013,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>79</v>
       </c>
@@ -977,27 +1021,27 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1005,22 +1049,22 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
@@ -1028,7 +1072,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>72</v>
       </c>
@@ -1036,7 +1080,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>59</v>
       </c>
@@ -1044,7 +1088,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
         <v>69</v>
       </c>
@@ -1052,7 +1096,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1060,17 +1104,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>65</v>
       </c>
@@ -1078,7 +1122,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>63</v>
       </c>
@@ -1086,7 +1130,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>61</v>
       </c>
@@ -1101,26 +1145,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1128,17 +1172,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -1146,47 +1190,47 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1194,42 +1238,42 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>118</v>
       </c>
@@ -1240,16 +1284,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1257,12 +1301,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1270,22 +1314,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1293,12 +1337,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1306,57 +1350,57 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1367,21 +1411,61 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3496FF8F-0D89-48AC-B168-49D7E9636AFB}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1389,12 +1473,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1402,22 +1486,22 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1425,12 +1509,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1438,7 +1522,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1446,52 +1530,52 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1501,25 +1585,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -1530,7 +1614,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1538,7 +1622,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1546,7 +1630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1557,17 +1641,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1575,27 +1659,27 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>123</v>
       </c>
@@ -1603,12 +1687,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1619,7 +1703,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1627,7 +1711,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>119</v>
       </c>
@@ -1635,7 +1719,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1643,7 +1727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1654,7 +1738,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1666,14 +1750,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="87" style="2" customWidth="1"/>
@@ -1681,7 +1765,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>104</v>
       </c>
@@ -1692,7 +1776,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1700,32 +1784,32 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>96</v>
       </c>
@@ -1733,7 +1817,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>94</v>
       </c>
@@ -1741,37 +1825,37 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>86</v>
       </c>
@@ -1779,7 +1863,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>84</v>
       </c>
@@ -1787,22 +1871,22 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>81</v>
       </c>
@@ -1813,16 +1897,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1830,7 +1914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1838,7 +1922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1846,7 +1930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1854,12 +1938,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1870,44 +1954,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1915,17 +1999,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1933,7 +2017,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1941,12 +2025,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>65</v>
       </c>
@@ -1954,12 +2038,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>105</v>
       </c>
@@ -1967,7 +2051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -1975,7 +2059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1983,12 +2067,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1996,12 +2080,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
@@ -2012,26 +2096,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2039,7 +2123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2047,27 +2131,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2075,17 +2159,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2093,12 +2177,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2106,12 +2190,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2119,7 +2203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2127,12 +2211,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2140,7 +2224,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2151,31 +2235,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2183,7 +2267,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2191,32 +2275,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -2224,37 +2308,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>1.4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>1.3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>2.5</v>
       </c>
@@ -2262,7 +2346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2273,21 +2357,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>4.5</v>
       </c>
@@ -2295,42 +2379,42 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5.7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2338,42 +2422,42 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -2381,12 +2465,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -2394,17 +2478,17 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2412,7 +2496,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>143</v>
       </c>
@@ -2420,7 +2504,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2431,71 +2515,71 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -2503,12 +2587,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2516,42 +2600,42 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>161</v>
       </c>
@@ -2559,17 +2643,17 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -2580,56 +2664,56 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -2637,32 +2721,32 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2670,27 +2754,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2698,12 +2782,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
